--- a/Moving Average Crossover Strategy/Indian_Instruments_Returns.xlsx
+++ b/Moving Average Crossover Strategy/Indian_Instruments_Returns.xlsx
@@ -471,7 +471,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2490506297848595</v>
+        <v>0.2490508402832084</v>
       </c>
     </row>
   </sheetData>
